--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npy-Prlhr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npy-Prlhr.xlsx
@@ -537,22 +537,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H2">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I2">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J2">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.000144</v>
+        <v>0.05138366666666667</v>
       </c>
       <c r="N2">
-        <v>0.000432</v>
+        <v>0.154151</v>
       </c>
       <c r="O2">
-        <v>0.0004051856256647577</v>
+        <v>0.1261233620023825</v>
       </c>
       <c r="P2">
-        <v>0.0004051856256647578</v>
+        <v>0.1261233620023825</v>
       </c>
       <c r="Q2">
-        <v>0.000390105648</v>
+        <v>0.05832457236000001</v>
       </c>
       <c r="R2">
-        <v>0.003510950832</v>
+        <v>0.5249211512400001</v>
       </c>
       <c r="S2">
-        <v>0.0002718149009965902</v>
+        <v>0.01544212052162002</v>
       </c>
       <c r="T2">
-        <v>0.0002718149009965902</v>
+        <v>0.01544212052162002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H3">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I3">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J3">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,25 +626,25 @@
         <v>0.124639</v>
       </c>
       <c r="N3">
-        <v>0.3739169999999999</v>
+        <v>0.3739170000000001</v>
       </c>
       <c r="O3">
-        <v>0.3507078555363176</v>
+        <v>0.3059316459176059</v>
       </c>
       <c r="P3">
-        <v>0.3507078555363176</v>
+        <v>0.3059316459176059</v>
       </c>
       <c r="Q3">
-        <v>0.3376554018129999</v>
+        <v>0.14147523612</v>
       </c>
       <c r="R3">
-        <v>3.038898616316999</v>
+        <v>1.27327712508</v>
       </c>
       <c r="S3">
-        <v>0.2352690100369028</v>
+        <v>0.03745724243814567</v>
       </c>
       <c r="T3">
-        <v>0.2352690100369028</v>
+        <v>0.03745724243814566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H4">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I4">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J4">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1271993333333333</v>
+        <v>0.1279423333333333</v>
       </c>
       <c r="N4">
-        <v>0.381598</v>
+        <v>0.383827</v>
       </c>
       <c r="O4">
-        <v>0.3579120934778245</v>
+        <v>0.3140398159420859</v>
       </c>
       <c r="P4">
-        <v>0.3579120934778246</v>
+        <v>0.3140398159420859</v>
       </c>
       <c r="Q4">
-        <v>0.3445915163553333</v>
+        <v>0.14522478372</v>
       </c>
       <c r="R4">
-        <v>3.101323647198</v>
+        <v>1.30702305348</v>
       </c>
       <c r="S4">
-        <v>0.2401019041446686</v>
+        <v>0.03844997952301216</v>
       </c>
       <c r="T4">
-        <v>0.2401019041446686</v>
+        <v>0.03844997952301215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H5">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I5">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J5">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03485433333333334</v>
+        <v>0.02523066666666667</v>
       </c>
       <c r="N5">
-        <v>0.104563</v>
+        <v>0.075692</v>
       </c>
       <c r="O5">
-        <v>0.09807274207496312</v>
+        <v>0.06192972810221366</v>
       </c>
       <c r="P5">
-        <v>0.09807274207496312</v>
+        <v>0.06192972810221366</v>
       </c>
       <c r="Q5">
-        <v>0.09442272424033335</v>
+        <v>0.02863882512</v>
       </c>
       <c r="R5">
-        <v>0.8498045181630001</v>
+        <v>0.25774942608</v>
       </c>
       <c r="S5">
-        <v>0.06579116086320941</v>
+        <v>0.007582467752544339</v>
       </c>
       <c r="T5">
-        <v>0.06579116086320941</v>
+        <v>0.007582467752544338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H6">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I6">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J6">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.06737733333333333</v>
+        <v>0.01572133333333333</v>
       </c>
       <c r="N6">
-        <v>0.202132</v>
+        <v>0.047164</v>
       </c>
       <c r="O6">
-        <v>0.1895856039047889</v>
+        <v>0.03858867114375106</v>
       </c>
       <c r="P6">
-        <v>0.1895856039047889</v>
+        <v>0.03858867114375106</v>
       </c>
       <c r="Q6">
-        <v>0.1825297102813333</v>
+        <v>0.01784497104</v>
       </c>
       <c r="R6">
-        <v>1.642767392532</v>
+        <v>0.16060473936</v>
       </c>
       <c r="S6">
-        <v>0.1271816888153768</v>
+        <v>0.00472466719179043</v>
       </c>
       <c r="T6">
-        <v>0.1271816888153768</v>
+        <v>0.004724667191790429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H7">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I7">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J7">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.001178666666666667</v>
+        <v>0.062491</v>
       </c>
       <c r="N7">
-        <v>0.003536</v>
+        <v>0.187473</v>
       </c>
       <c r="O7">
-        <v>0.003316519380441165</v>
+        <v>0.1533867768919609</v>
       </c>
       <c r="P7">
-        <v>0.003316519380441165</v>
+        <v>0.1533867768919609</v>
       </c>
       <c r="Q7">
-        <v>0.003193086970666666</v>
+        <v>0.07093228428000001</v>
       </c>
       <c r="R7">
-        <v>0.028737782736</v>
+        <v>0.63839055852</v>
       </c>
       <c r="S7">
-        <v>0.002224855300749868</v>
+        <v>0.01878016140375132</v>
       </c>
       <c r="T7">
-        <v>0.002224855300749868</v>
+        <v>0.01878016140375132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H8">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I8">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J8">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.000144</v>
+        <v>0.05138366666666667</v>
       </c>
       <c r="N8">
-        <v>0.000432</v>
+        <v>0.154151</v>
       </c>
       <c r="O8">
-        <v>0.0004051856256647577</v>
+        <v>0.1261233620023825</v>
       </c>
       <c r="P8">
-        <v>0.0004051856256647578</v>
+        <v>0.1261233620023825</v>
       </c>
       <c r="Q8">
-        <v>8.913792000000001E-06</v>
+        <v>0.034561887408</v>
       </c>
       <c r="R8">
-        <v>8.022412800000001E-05</v>
+        <v>0.311056986672</v>
       </c>
       <c r="S8">
-        <v>6.210885441946224E-06</v>
+        <v>0.009150668564096048</v>
       </c>
       <c r="T8">
-        <v>6.210885441946225E-06</v>
+        <v>0.009150668564096048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H9">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I9">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J9">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -998,25 +998,25 @@
         <v>0.124639</v>
       </c>
       <c r="N9">
-        <v>0.3739169999999999</v>
+        <v>0.3739170000000001</v>
       </c>
       <c r="O9">
-        <v>0.3507078555363176</v>
+        <v>0.3059316459176059</v>
       </c>
       <c r="P9">
-        <v>0.3507078555363176</v>
+        <v>0.3059316459176059</v>
       </c>
       <c r="Q9">
-        <v>0.007715320285333333</v>
+        <v>0.08383518273600001</v>
       </c>
       <c r="R9">
-        <v>0.06943788256799999</v>
+        <v>0.7545166446240001</v>
       </c>
       <c r="S9">
-        <v>0.005375823268046773</v>
+        <v>0.02219635641339402</v>
       </c>
       <c r="T9">
-        <v>0.005375823268046773</v>
+        <v>0.02219635641339402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H10">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I10">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J10">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1271993333333333</v>
+        <v>0.1279423333333333</v>
       </c>
       <c r="N10">
-        <v>0.381598</v>
+        <v>0.383827</v>
       </c>
       <c r="O10">
-        <v>0.3579120934778245</v>
+        <v>0.3140398159420859</v>
       </c>
       <c r="P10">
-        <v>0.3579120934778246</v>
+        <v>0.3140398159420859</v>
       </c>
       <c r="Q10">
-        <v>0.007873808332444445</v>
+        <v>0.086057084016</v>
       </c>
       <c r="R10">
-        <v>0.070864274992</v>
+        <v>0.774513756144</v>
       </c>
       <c r="S10">
-        <v>0.005486253386286563</v>
+        <v>0.02278463106273261</v>
       </c>
       <c r="T10">
-        <v>0.005486253386286563</v>
+        <v>0.02278463106273261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H11">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I11">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J11">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03485433333333334</v>
+        <v>0.02523066666666667</v>
       </c>
       <c r="N11">
-        <v>0.104563</v>
+        <v>0.075692</v>
       </c>
       <c r="O11">
-        <v>0.09807274207496312</v>
+        <v>0.06192972810221366</v>
       </c>
       <c r="P11">
-        <v>0.09807274207496312</v>
+        <v>0.06192972810221366</v>
       </c>
       <c r="Q11">
-        <v>0.002157529705777778</v>
+        <v>0.016970751936</v>
       </c>
       <c r="R11">
-        <v>0.019417767352</v>
+        <v>0.152736767424</v>
       </c>
       <c r="S11">
-        <v>0.001503307440894035</v>
+        <v>0.004493207341850251</v>
       </c>
       <c r="T11">
-        <v>0.001503307440894035</v>
+        <v>0.004493207341850251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H12">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I12">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J12">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.06737733333333333</v>
+        <v>0.01572133333333333</v>
       </c>
       <c r="N12">
-        <v>0.202132</v>
+        <v>0.047164</v>
       </c>
       <c r="O12">
-        <v>0.1895856039047889</v>
+        <v>0.03858867114375106</v>
       </c>
       <c r="P12">
-        <v>0.1895856039047889</v>
+        <v>0.03858867114375106</v>
       </c>
       <c r="Q12">
-        <v>0.004170746769777777</v>
+        <v>0.010574546112</v>
       </c>
       <c r="R12">
-        <v>0.03753672092800001</v>
+        <v>0.095170915008</v>
       </c>
       <c r="S12">
-        <v>0.002906061796646931</v>
+        <v>0.002799736181776479</v>
       </c>
       <c r="T12">
-        <v>0.002906061796646931</v>
+        <v>0.002799736181776479</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H13">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I13">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J13">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.001178666666666667</v>
+        <v>0.062491</v>
       </c>
       <c r="N13">
-        <v>0.003536</v>
+        <v>0.187473</v>
       </c>
       <c r="O13">
-        <v>0.003316519380441165</v>
+        <v>0.1533867768919609</v>
       </c>
       <c r="P13">
-        <v>0.003316519380441165</v>
+        <v>0.1533867768919609</v>
       </c>
       <c r="Q13">
-        <v>7.296103822222222E-05</v>
+        <v>0.042032946384</v>
       </c>
       <c r="R13">
-        <v>0.0006566493440000001</v>
+        <v>0.378296517456</v>
       </c>
       <c r="S13">
-        <v>5.083724750630057E-05</v>
+        <v>0.01112871981185188</v>
       </c>
       <c r="T13">
-        <v>5.083724750630058E-05</v>
+        <v>0.01112871981185188</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H14">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I14">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J14">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.000144</v>
+        <v>0.05138366666666667</v>
       </c>
       <c r="N14">
-        <v>0.000432</v>
+        <v>0.154151</v>
       </c>
       <c r="O14">
-        <v>0.0004051856256647577</v>
+        <v>0.1261233620023825</v>
       </c>
       <c r="P14">
-        <v>0.0004051856256647578</v>
+        <v>0.1261233620023825</v>
       </c>
       <c r="Q14">
-        <v>0.000182498352</v>
+        <v>0.3834788906445555</v>
       </c>
       <c r="R14">
-        <v>0.001642485168</v>
+        <v>3.451310015801</v>
       </c>
       <c r="S14">
-        <v>0.0001271598392262213</v>
+        <v>0.1015305729166665</v>
       </c>
       <c r="T14">
-        <v>0.0001271598392262213</v>
+        <v>0.1015305729166665</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H15">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I15">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J15">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1370,25 +1370,25 @@
         <v>0.124639</v>
       </c>
       <c r="N15">
-        <v>0.3739169999999999</v>
+        <v>0.3739170000000001</v>
       </c>
       <c r="O15">
-        <v>0.3507078555363176</v>
+        <v>0.3059316459176059</v>
       </c>
       <c r="P15">
-        <v>0.3507078555363176</v>
+        <v>0.3059316459176059</v>
       </c>
       <c r="Q15">
-        <v>0.1579611951036667</v>
+        <v>0.9301871304963333</v>
       </c>
       <c r="R15">
-        <v>1.421650755933</v>
+        <v>8.371684174467001</v>
       </c>
       <c r="S15">
-        <v>0.110063022231368</v>
+        <v>0.2462780470660662</v>
       </c>
       <c r="T15">
-        <v>0.110063022231368</v>
+        <v>0.2462780470660662</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H16">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I16">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J16">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1271993333333333</v>
+        <v>0.1279423333333333</v>
       </c>
       <c r="N16">
-        <v>0.381598</v>
+        <v>0.383827</v>
       </c>
       <c r="O16">
-        <v>0.3579120934778245</v>
+        <v>0.3140398159420859</v>
       </c>
       <c r="P16">
-        <v>0.3579120934778246</v>
+        <v>0.3140398159420859</v>
       </c>
       <c r="Q16">
-        <v>0.1612060327002222</v>
+        <v>0.9548400734307776</v>
       </c>
       <c r="R16">
-        <v>1.450854294302</v>
+        <v>8.593560660876999</v>
       </c>
       <c r="S16">
-        <v>0.1123239359468694</v>
+        <v>0.2528052053563411</v>
       </c>
       <c r="T16">
-        <v>0.1123239359468694</v>
+        <v>0.2528052053563411</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H17">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I17">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J17">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03485433333333334</v>
+        <v>0.02523066666666667</v>
       </c>
       <c r="N17">
-        <v>0.104563</v>
+        <v>0.075692</v>
       </c>
       <c r="O17">
-        <v>0.09807274207496312</v>
+        <v>0.06192972810221366</v>
       </c>
       <c r="P17">
-        <v>0.09807274207496312</v>
+        <v>0.06192972810221366</v>
       </c>
       <c r="Q17">
-        <v>0.0441726277318889</v>
+        <v>0.1882977352768889</v>
       </c>
       <c r="R17">
-        <v>0.3975536495870001</v>
+        <v>1.694679617492</v>
       </c>
       <c r="S17">
-        <v>0.03077827377085968</v>
+        <v>0.04985405300781907</v>
       </c>
       <c r="T17">
-        <v>0.03077827377085968</v>
+        <v>0.04985405300781907</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H18">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I18">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J18">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.06737733333333333</v>
+        <v>0.01572133333333333</v>
       </c>
       <c r="N18">
-        <v>0.202132</v>
+        <v>0.047164</v>
       </c>
       <c r="O18">
-        <v>0.1895856039047889</v>
+        <v>0.03858867114375106</v>
       </c>
       <c r="P18">
-        <v>0.1895856039047889</v>
+        <v>0.03858867114375106</v>
       </c>
       <c r="Q18">
-        <v>0.0853906409408889</v>
+        <v>0.1173291019737778</v>
       </c>
       <c r="R18">
-        <v>0.7685157684680001</v>
+        <v>1.055961917764</v>
       </c>
       <c r="S18">
-        <v>0.0594978532927652</v>
+        <v>0.03106426777018415</v>
       </c>
       <c r="T18">
-        <v>0.0594978532927652</v>
+        <v>0.03106426777018415</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H19">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I19">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J19">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.001178666666666667</v>
+        <v>0.062491</v>
       </c>
       <c r="N19">
-        <v>0.003536</v>
+        <v>0.187473</v>
       </c>
       <c r="O19">
-        <v>0.003316519380441165</v>
+        <v>0.1533867768919609</v>
       </c>
       <c r="P19">
-        <v>0.003316519380441165</v>
+        <v>0.1533867768919609</v>
       </c>
       <c r="Q19">
-        <v>0.001493782807111111</v>
+        <v>0.4663734783803333</v>
       </c>
       <c r="R19">
-        <v>0.013444045264</v>
+        <v>4.197361305423</v>
       </c>
       <c r="S19">
-        <v>0.001040826832184997</v>
+        <v>0.1234778956763577</v>
       </c>
       <c r="T19">
-        <v>0.001040826832184997</v>
+        <v>0.1234778956763577</v>
       </c>
     </row>
   </sheetData>
